--- a/sprints/sprint3/sprint3_backlog.xlsx
+++ b/sprints/sprint3/sprint3_backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan Corley\git\SE2-project-repos-sample\sprints\sprint1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jgain\OneDrive\Documents\School\Spring 2024\UWG-SE2-Group5-Myst\sprints\sprint3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9C4265-351C-41A0-89E5-93A08D9C51A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5219FE0A-E609-408C-9E34-EF58B87F9FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22965" yWindow="-21720" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Related User Story</t>
   </si>
@@ -60,10 +65,64 @@
     <t>Estimate Totals</t>
   </si>
   <si>
-    <t>Code Things…</t>
-  </si>
-  <si>
-    <t>That User Story</t>
+    <t>Implement Buttons on Library page</t>
+  </si>
+  <si>
+    <t>Implement Buttons on All Games/ Mystiverse page</t>
+  </si>
+  <si>
+    <t>Implement Buttons on Preference page</t>
+  </si>
+  <si>
+    <t>Short description and Image on firstTimeLogin page</t>
+  </si>
+  <si>
+    <t>Commenting on games java side in library</t>
+  </si>
+  <si>
+    <t>Commenting on games on server side</t>
+  </si>
+  <si>
+    <t>Landing on library if not firstTimeLogin</t>
+  </si>
+  <si>
+    <t>Implementing suggesting games to other users java side</t>
+  </si>
+  <si>
+    <t>Implementing suggesting games to other user server side</t>
+  </si>
+  <si>
+    <t>Implement suggestion page as tab on profile page</t>
+  </si>
+  <si>
+    <t>All selected lists need add button and remove button</t>
+  </si>
+  <si>
+    <t>Implement image and description on Mystiverse</t>
+  </si>
+  <si>
+    <t>Implement Setting stuff with server</t>
+  </si>
+  <si>
+    <t>Jeffrey</t>
+  </si>
+  <si>
+    <t>Mystiverse selected lists need add button and remove button</t>
+  </si>
+  <si>
+    <t>Preference selected lists need add button and remove button</t>
+  </si>
+  <si>
+    <t>Add game selected lists need add button and remove button</t>
+  </si>
+  <si>
+    <t>Seed page search bar</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Dillon</t>
   </si>
 </sst>
 </file>
@@ -87,7 +146,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,6 +183,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE676D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -137,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -145,19 +222,27 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFE676D9"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -261,21 +346,21 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$27:$G$27</c:f>
+              <c:f>Sheet1!$C$30:$G$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1023,12 +1108,12 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1320,27 +1405,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" zoomScale="182" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.42578125" customWidth="1"/>
-    <col min="2" max="2" width="41.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.44140625" customWidth="1"/>
+    <col min="2" max="2" width="41.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
@@ -1350,191 +1435,245 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="7" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1">
-        <v>100</v>
-      </c>
-      <c r="D3" s="2">
-        <v>75</v>
-      </c>
-      <c r="E3" s="2">
-        <v>50</v>
-      </c>
-      <c r="F3" s="2">
-        <v>25</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1">
+        <v>5</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1">
+        <v>5</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1">
+        <v>3</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="C16" s="1">
+        <v>3</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="C17" s="1">
+        <v>4</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="C18" s="1">
+        <v>3</v>
+      </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1">
+        <v>5</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1543,7 +1682,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1552,8 +1691,10 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="2"/>
@@ -1561,8 +1702,10 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="2"/>
@@ -1570,8 +1713,10 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="2"/>
@@ -1579,7 +1724,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1588,7 +1733,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1597,28 +1742,56 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="4" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="3">
-        <f>SUM(C3:C26)</f>
-        <v>100</v>
-      </c>
-      <c r="D27" s="3">
-        <f t="shared" ref="D27:G27" si="0">SUM(D3:D26)</f>
-        <v>75</v>
-      </c>
-      <c r="E27" s="3">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="F27" s="3">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="G27" s="3">
-        <f t="shared" si="0"/>
+      <c r="C30" s="3">
+        <f>SUM(C3:C29)</f>
+        <v>60</v>
+      </c>
+      <c r="D30" s="3">
+        <f>SUM(D3:D29)</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="3">
+        <f>SUM(E3:E29)</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <f>SUM(F3:F29)</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="3">
+        <f>SUM(G3:G29)</f>
         <v>0</v>
       </c>
     </row>

--- a/sprints/sprint3/sprint3_backlog.xlsx
+++ b/sprints/sprint3/sprint3_backlog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20405"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jgain\OneDrive\Documents\School\Spring 2024\UWG-SE2-Group5-Myst\sprints\sprint3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drivera3\source\repos\UWG-SE2-Group5-Myst\sprints\sprint3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5219FE0A-E609-408C-9E34-EF58B87F9FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F506BD6-F21C-4D3D-A6CF-E66A63AE20AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-22965" yWindow="-21720" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,17 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -223,15 +212,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1407,38 +1396,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="182" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.44140625" customWidth="1"/>
-    <col min="2" max="2" width="41.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.42578125" customWidth="1"/>
+    <col min="2" max="2" width="41.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
       <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
@@ -1452,8 +1441,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1"/>
@@ -1465,21 +1454,23 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1">
         <v>3</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="1"/>
@@ -1491,21 +1482,23 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1">
         <v>3</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="1"/>
@@ -1517,21 +1510,23 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1">
         <v>3</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="1"/>
@@ -1543,7 +1538,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -1556,8 +1551,8 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="1"/>
@@ -1569,8 +1564,8 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="1"/>
@@ -1582,7 +1577,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1595,7 +1590,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -1608,7 +1603,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -1621,8 +1616,8 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="1"/>
@@ -1634,8 +1629,8 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="1"/>
@@ -1647,21 +1642,23 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1">
         <v>3</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="1"/>
@@ -1673,7 +1670,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1682,7 +1679,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1691,8 +1688,8 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="1"/>
@@ -1702,8 +1699,8 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="1"/>
@@ -1713,8 +1710,8 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="1"/>
@@ -1724,7 +1721,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1733,7 +1730,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1742,7 +1739,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1751,7 +1748,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1760,7 +1757,7 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1769,7 +1766,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="4" t="s">
         <v>8</v>
